--- a/Data/raw_data.xlsx
+++ b/Data/raw_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github_Projects\Tails\Analyses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github_Projects\Tails\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="263">
   <si>
     <t>Species</t>
   </si>
   <si>
-    <t>Tlength_mm</t>
-  </si>
-  <si>
-    <t>Blength_mm</t>
-  </si>
-  <si>
     <t>Wt_g</t>
   </si>
   <si>
@@ -765,15 +759,6 @@
     <t>Tl_Av_M</t>
   </si>
   <si>
-    <t>TL_Av_F</t>
-  </si>
-  <si>
-    <t>BL_Av_M</t>
-  </si>
-  <si>
-    <t>BL_Av_F</t>
-  </si>
-  <si>
     <t>Wt_Av_M</t>
   </si>
   <si>
@@ -790,6 +775,39 @@
   </si>
   <si>
     <t>Phascogale_pirata</t>
+  </si>
+  <si>
+    <t>Notoryctemorph</t>
+  </si>
+  <si>
+    <t>Peramelemorph</t>
+  </si>
+  <si>
+    <t>Dasyuromorph</t>
+  </si>
+  <si>
+    <t>Diprotodontian</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Tl_Av_F</t>
+  </si>
+  <si>
+    <t>Bl_Av_F</t>
+  </si>
+  <si>
+    <t>Bl_Av_M</t>
+  </si>
+  <si>
+    <t>Tl_mm</t>
+  </si>
+  <si>
+    <t>Bl_mm</t>
   </si>
 </sst>
 </file>
@@ -1638,11 +1656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK208"/>
+  <dimension ref="A1:AL208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,306 +1682,349 @@
     <col min="21" max="21" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="9.140625" style="5"/>
+    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AJ1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" t="s">
         <v>252</v>
       </c>
-      <c r="AI1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ2" t="s">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AI3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="AI4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="AI5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="s">
         <v>24</v>
       </c>
-      <c r="AI4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="AL5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="AI5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="AI6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="AI7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="AI8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="AI7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="AI9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="AI8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="AI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="AI9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="AI11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="AI10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="AI12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="AI11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="AI13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="AI12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="AI14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>34</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
       </c>
       <c r="Q15" s="4">
         <v>51.7</v>
@@ -2020,18 +2081,21 @@
         <v>8.4</v>
       </c>
       <c r="AI15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="4">
         <v>50</v>
@@ -2088,18 +2152,21 @@
         <v>3.8</v>
       </c>
       <c r="AI16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="4">
         <v>60</v>
@@ -2156,18 +2223,21 @@
         <v>6.9</v>
       </c>
       <c r="AI17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="4">
         <v>50</v>
@@ -2224,340 +2294,412 @@
         <v>5.3</v>
       </c>
       <c r="AI18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="AI19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="AI21" t="s">
         <v>41</v>
       </c>
-      <c r="AI20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="AJ21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AI22" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="AI23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="AI22" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="AI24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="AI23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="AI25" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="AI24" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="AI26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="AI25" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="AI27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK27" t="s">
         <v>48</v>
       </c>
-      <c r="AI26" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="AL27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="AI27" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK27" t="s">
+      <c r="AI28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="AI29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="AI28" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="AI30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="AI29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="AI31" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="AI30" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="AI32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="AI31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="AI33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="AI32" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="AI34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="AI33" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="AI35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="AI34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="AI36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>58</v>
       </c>
-      <c r="AI35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="AI37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="AI36" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="AI38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="AI37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="AI39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>61</v>
       </c>
-      <c r="AI38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="AI40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="AI39" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="AI41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>63</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>65</v>
       </c>
       <c r="Q42" s="4">
         <v>160</v>
@@ -2614,18 +2756,21 @@
         <v>156</v>
       </c>
       <c r="AI42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AJ42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q43" s="4">
         <v>209</v>
@@ -2660,10 +2805,19 @@
       <c r="AG43">
         <v>234</v>
       </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q44" s="4">
         <v>105</v>
@@ -2720,18 +2874,21 @@
         <v>43</v>
       </c>
       <c r="AI44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AJ44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q45" s="4">
         <v>98</v>
@@ -2787,10 +2944,16 @@
       <c r="AH45" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q46" s="4">
         <v>103</v>
@@ -2848,18 +3011,21 @@
         <v>48.5</v>
       </c>
       <c r="AI46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q47" s="4">
         <v>93</v>
@@ -2915,10 +3081,16 @@
       <c r="AH47" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ47" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q48" s="4">
         <v>95</v>
@@ -2974,10 +3146,16 @@
       <c r="AH48" s="5">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q49" s="4">
         <v>103</v>
@@ -3034,18 +3212,21 @@
         <v>41</v>
       </c>
       <c r="AI49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q50" s="4">
         <v>110</v>
@@ -3102,18 +3283,21 @@
         <v>56</v>
       </c>
       <c r="AI50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>72</v>
       </c>
       <c r="Q51" s="4">
         <v>81</v>
@@ -3170,18 +3354,21 @@
         <v>20</v>
       </c>
       <c r="AI51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q52" s="4">
         <v>65</v>
@@ -3238,18 +3425,21 @@
         <v>18</v>
       </c>
       <c r="AI52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q53" s="4">
         <v>93</v>
@@ -3306,18 +3496,21 @@
         <v>34</v>
       </c>
       <c r="AI53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJ53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q54" s="4">
         <v>121</v>
@@ -3374,18 +3567,21 @@
         <v>34</v>
       </c>
       <c r="AI54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJ54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q55" s="4">
         <v>142</v>
@@ -3442,18 +3638,21 @@
         <v>54</v>
       </c>
       <c r="AI55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJ55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q56" s="4">
         <v>140</v>
@@ -3498,18 +3697,21 @@
         <v>165</v>
       </c>
       <c r="AI56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q57" s="4">
         <v>90</v>
@@ -3548,18 +3750,21 @@
         <v>35</v>
       </c>
       <c r="AI57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q58" s="4">
         <v>90</v>
@@ -3598,18 +3803,21 @@
         <v>20</v>
       </c>
       <c r="AI58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q59" s="4">
         <v>135</v>
@@ -3647,10 +3855,16 @@
       <c r="AB59">
         <v>90</v>
       </c>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ59" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q60" s="4">
         <v>130</v>
@@ -3689,18 +3903,21 @@
         <v>120</v>
       </c>
       <c r="AI60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q61" s="4">
         <v>107</v>
@@ -3739,18 +3956,21 @@
         <v>45</v>
       </c>
       <c r="AI61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q62" s="4">
         <v>82</v>
@@ -3807,18 +4027,21 @@
         <v>22</v>
       </c>
       <c r="AI62" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q63" s="4">
         <v>95</v>
@@ -3857,18 +4080,21 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q64" s="4">
         <v>80</v>
@@ -3925,18 +4151,21 @@
         <v>18</v>
       </c>
       <c r="AI64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U65" s="6">
         <v>105</v>
@@ -3969,18 +4198,21 @@
         <v>95</v>
       </c>
       <c r="AI65" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q66" s="4">
         <v>95</v>
@@ -4019,18 +4251,21 @@
         <v>30</v>
       </c>
       <c r="AI66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y67">
         <v>8000</v>
@@ -4057,18 +4292,21 @@
         <v>244</v>
       </c>
       <c r="AI67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q68" s="4">
         <v>270</v>
@@ -4107,18 +4345,21 @@
         <v>690</v>
       </c>
       <c r="AI68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AJ68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q69" s="4">
         <v>380</v>
@@ -4163,18 +4404,21 @@
         <v>2000</v>
       </c>
       <c r="AI69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q70" s="4">
         <v>320</v>
@@ -4231,18 +4475,21 @@
         <v>900</v>
       </c>
       <c r="AI70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q71" s="4">
         <v>310</v>
@@ -4299,1516 +4546,1840 @@
         <v>890</v>
       </c>
       <c r="AI71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>92</v>
       </c>
-      <c r="AI72" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="AI74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ74" t="s">
         <v>93</v>
       </c>
-      <c r="AI73" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="AK74" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>94</v>
       </c>
-      <c r="AI74" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ74" t="s">
+      <c r="AI75" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>95</v>
       </c>
-      <c r="AK74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="AI76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>96</v>
       </c>
-      <c r="AI75" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ75" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK75" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="AI77" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>97</v>
       </c>
-      <c r="AI76" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="AI78" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>98</v>
       </c>
-      <c r="AI77" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="AI79" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>99</v>
       </c>
-      <c r="AI78" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK78" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="AI80" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>100</v>
       </c>
-      <c r="AI79" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ79" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK79" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="AI81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>101</v>
       </c>
-      <c r="AI80" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ80" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK80" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="AI82" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>102</v>
       </c>
-      <c r="AI81" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ81" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK81" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="AI83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>103</v>
       </c>
-      <c r="AI82" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ82" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="AI84" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>104</v>
       </c>
-      <c r="AI83" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ83" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK83" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="AI85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>105</v>
       </c>
-      <c r="AI84" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ84" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="AI86" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>106</v>
       </c>
-      <c r="AI85" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ85" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK85" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="AI87" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>107</v>
       </c>
-      <c r="AI86" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ86" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK86" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="AI88" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>108</v>
       </c>
-      <c r="AI87" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ87" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="AI89" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>109</v>
       </c>
-      <c r="AI88" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ88" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK88" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="AI90" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>110</v>
       </c>
-      <c r="AI89" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ89" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK89" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="AI91" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>111</v>
       </c>
-      <c r="AI90" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ90" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK90" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="AI92" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>112</v>
       </c>
-      <c r="AI91" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ91" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="AI93" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>113</v>
       </c>
-      <c r="AI92" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ92" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK92" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="AI94" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>114</v>
       </c>
-      <c r="AI93" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ93" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="AI95" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>115</v>
       </c>
-      <c r="AI94" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ94" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="AI96" t="s">
         <v>116</v>
       </c>
-      <c r="AI95" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ95" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="AJ96" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>117</v>
       </c>
-      <c r="AI96" t="s">
+      <c r="AI97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>118</v>
       </c>
-      <c r="AJ96" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK96" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="AI98" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>119</v>
       </c>
-      <c r="AI97" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ97" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="AI99" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>120</v>
       </c>
-      <c r="AI98" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ98" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="AI100" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>121</v>
       </c>
-      <c r="AI99" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ99" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="AI101" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>122</v>
       </c>
-      <c r="AI100" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ100" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="AI102" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>123</v>
       </c>
-      <c r="AI101" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ101" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="AI103" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>124</v>
       </c>
-      <c r="AI102" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ102" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="AI104" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK104" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>125</v>
       </c>
-      <c r="AI103" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ103" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="AI105" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>126</v>
       </c>
-      <c r="AI104" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ104" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="AI106" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>127</v>
       </c>
-      <c r="AI105" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ105" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK105" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="AI107" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>128</v>
       </c>
-      <c r="AI106" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ106" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK106" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="AI108" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>129</v>
       </c>
-      <c r="AI107" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ107" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="AI109" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>130</v>
       </c>
-      <c r="AI108" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ108" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="AI110" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>131</v>
       </c>
-      <c r="AI109" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ109" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK109" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="AI111" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>132</v>
       </c>
-      <c r="AI110" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ110" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK110" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="AI112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>133</v>
       </c>
-      <c r="AI111" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ111" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="AI113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>134</v>
       </c>
-      <c r="AI112" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ112" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK112" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="AI114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>135</v>
       </c>
-      <c r="AI113" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ113" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK113" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="AI115" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>136</v>
       </c>
-      <c r="AI114" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ114" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK114" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="AI116" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>137</v>
       </c>
-      <c r="AI115" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ115" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK115" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="AI117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>138</v>
       </c>
-      <c r="AI116" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ116" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK116" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="AI118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>139</v>
       </c>
-      <c r="AI117" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ117" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK117" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="AI119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>140</v>
       </c>
-      <c r="AI118" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ118" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="AI120" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>141</v>
       </c>
-      <c r="AI119" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ119" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="AI121" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ121" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>142</v>
       </c>
-      <c r="AI120" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ120" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK120" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="AI122" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ122" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK122" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>143</v>
       </c>
-      <c r="AI121" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ121" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK121" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="AI123" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ123" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK123" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>144</v>
       </c>
-      <c r="AI122" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ122" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="AI124" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ124" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK124" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>145</v>
       </c>
-      <c r="AI123" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ123" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="AI125" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK125" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>146</v>
       </c>
-      <c r="AI124" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ124" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK124" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="AI126" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ126" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK126" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>147</v>
       </c>
-      <c r="AI125" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ125" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK125" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="AI127" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ127" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK127" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL127" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>148</v>
       </c>
-      <c r="AI126" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ126" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK126" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="AI128" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ128" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK128" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>149</v>
       </c>
-      <c r="AI127" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ127" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK127" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="AI129" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ129" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK129" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>150</v>
       </c>
-      <c r="AI128" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ128" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK128" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="AI130" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ130" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK130" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>151</v>
       </c>
-      <c r="AI129" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ129" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK129" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="AI131" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ131" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK131" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL131" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>152</v>
       </c>
-      <c r="AI130" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ130" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK130" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="AI132" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ132" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK132" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL132" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>153</v>
       </c>
-      <c r="AI131" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ131" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK131" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="AI133" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ133" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK133" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL133" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>154</v>
       </c>
-      <c r="AI132" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ132" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK132" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="AI134" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ134" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK134" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL134" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>155</v>
       </c>
-      <c r="AI133" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ133" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK133" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="AI135" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ135" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK135" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL135" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>156</v>
       </c>
-      <c r="AI134" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ134" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK134" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="AI136" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ136" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK136" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL136" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>157</v>
       </c>
-      <c r="AI135" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ135" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK135" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="AI137" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ137" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK137" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL137" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>158</v>
       </c>
-      <c r="AI136" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ136" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="AI138" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ138" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK138" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>159</v>
       </c>
-      <c r="AI137" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ137" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK137" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="AI139" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ139" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK139" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL139" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>160</v>
       </c>
-      <c r="AI138" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ138" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK138" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="AI140" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ140" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK140" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL140" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>161</v>
       </c>
-      <c r="AI139" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ139" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK139" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="AI141" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ141" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK141" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL141" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>162</v>
       </c>
-      <c r="AI140" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ140" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK140" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="AI142" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ142" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK142" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL142" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>163</v>
       </c>
-      <c r="AI141" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ141" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK141" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="AI143" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ143" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK143" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL143" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>164</v>
       </c>
-      <c r="AI142" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ142" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK142" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="AI144" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL144" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>165</v>
       </c>
-      <c r="AI143" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ143" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK143" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="AI145" t="s">
         <v>166</v>
       </c>
-      <c r="AI144" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ144" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK144" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="AJ145" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK145" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL145" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>167</v>
       </c>
-      <c r="AI145" t="s">
+      <c r="AI146" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ146" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK146" t="s">
         <v>168</v>
       </c>
-      <c r="AJ145" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK145" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="AL146" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>169</v>
       </c>
-      <c r="AI146" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ146" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK146" t="s">
+      <c r="AI147" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ147" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK147" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL147" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="AI148" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ148" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK148" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL148" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>171</v>
       </c>
-      <c r="AI147" t="s">
+      <c r="AI149" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK149" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL149" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK150" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL150" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK151" t="s">
         <v>168</v>
       </c>
-      <c r="AJ147" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK147" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI148" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ148" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK148" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI149" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ149" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK149" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="AL151" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>174</v>
       </c>
-      <c r="AI150" t="s">
+      <c r="AI152" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK152" t="s">
         <v>168</v>
       </c>
-      <c r="AJ150" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK150" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="AL152" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK153" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL153" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>175</v>
       </c>
-      <c r="AI151" t="s">
+      <c r="AI154" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ154" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK154" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL154" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK155" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL155" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK156" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI157" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK157" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL157" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK158" t="s">
         <v>168</v>
       </c>
-      <c r="AJ151" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK151" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI152" t="s">
+      <c r="AL158" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK159" t="s">
         <v>168</v>
       </c>
-      <c r="AJ152" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK152" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="AL159" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK160" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL160" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK162" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK163" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK164" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK165" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL167" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK168" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ169" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK169" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ170" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK170" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ171" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK171" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ172" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK172" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK175" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>231</v>
       </c>
-      <c r="AI153" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ153" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK153" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI154" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ154" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK154" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI155" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ155" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK155" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI156" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ156" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK156" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI157" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ157" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK157" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI158" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ158" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI159" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ159" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK159" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI160" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ160" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK160" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI161" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ161" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK161" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI162" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ162" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK162" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI163" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ163" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK163" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI164" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ164" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK164" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI165" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ165" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK165" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI166" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ166" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK166" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI167" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ167" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK167" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI168" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ168" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK168" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI169" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ169" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK169" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>193</v>
-      </c>
-      <c r="AI170" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ170" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK170" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI171" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ171" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI172" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ172" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK172" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI173" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ173" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK173" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="AI176" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK176" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>197</v>
       </c>
-      <c r="AI174" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ174" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK174" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="AI177" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK177" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>198</v>
       </c>
-      <c r="AI175" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ175" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK175" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI176" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ176" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK176" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="AI178" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>199</v>
-      </c>
-      <c r="AI177" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ177" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK177" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI178" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ178" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK178" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>201</v>
       </c>
       <c r="K179" s="3"/>
       <c r="L179" s="2"/>
@@ -5817,420 +6388,510 @@
       <c r="O179"/>
       <c r="P179"/>
       <c r="AI179" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ179" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK179" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK180" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL180" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>202</v>
       </c>
-      <c r="AI180" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ180" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK180" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="AI182" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK182" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>203</v>
       </c>
-      <c r="AI181" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ181" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK181" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="182" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="AI183" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK183" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>204</v>
       </c>
-      <c r="AI182" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ182" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK182" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="AI184" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>205</v>
       </c>
-      <c r="AI183" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ183" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK183" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="AI185" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK185" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>206</v>
       </c>
-      <c r="AI184" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ184" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK184" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="AI186" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK186" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>207</v>
       </c>
-      <c r="AI185" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ185" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK185" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="AI187" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>208</v>
       </c>
-      <c r="AI186" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ186" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK186" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="187" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="AI188" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>209</v>
       </c>
-      <c r="AI187" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ187" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK187" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="AI189" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>210</v>
       </c>
-      <c r="AI188" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ188" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK188" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="189" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="AI190" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ190" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK190" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL190" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>211</v>
       </c>
-      <c r="AI189" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ189" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK189" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="190" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="AI191" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK191" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>212</v>
       </c>
-      <c r="AI190" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ190" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK190" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="191" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="AI192" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ192" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK192" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL192" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>213</v>
       </c>
-      <c r="AI191" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ191" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK191" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="192" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="AI193" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ193" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK193" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>214</v>
       </c>
-      <c r="AI192" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ192" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK192" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="AI194" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ194" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK194" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL194" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>215</v>
       </c>
-      <c r="AI193" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ193" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK193" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="AI195" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK195" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>216</v>
       </c>
-      <c r="AI194" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ194" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK194" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="AI196" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL196" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>217</v>
-      </c>
-      <c r="AI195" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ195" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK195" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>218</v>
-      </c>
-      <c r="AI196" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ196" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK196" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>219</v>
       </c>
       <c r="L197" s="1"/>
       <c r="AI197" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ197" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK197" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK198" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL198" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK199" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL199" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>220</v>
       </c>
-      <c r="AI198" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ198" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK198" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="AI200" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ200" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK200" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL200" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>221</v>
       </c>
-      <c r="AI199" t="s">
+      <c r="AI201" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ201" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK201" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL201" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ202" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK202" t="s">
         <v>168</v>
       </c>
-      <c r="AJ199" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK199" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI200" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ200" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK200" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="AL202" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>223</v>
       </c>
-      <c r="AI201" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ201" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK201" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="AI203" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ203" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK203" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>224</v>
       </c>
-      <c r="AI202" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ202" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK202" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="203" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="AI204" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ204" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK204" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>225</v>
       </c>
-      <c r="AI203" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ203" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK203" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="204" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="AI205" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ205" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK205" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>226</v>
       </c>
-      <c r="AI204" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ204" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK204" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="205" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="AI206" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK206" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>227</v>
       </c>
-      <c r="AI205" t="s">
+      <c r="AI207" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK207" t="s">
         <v>168</v>
       </c>
-      <c r="AJ205" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK205" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="206" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="AL207" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>228</v>
       </c>
-      <c r="AI206" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ206" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK206" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="207" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI207" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ207" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK207" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="208" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>230</v>
-      </c>
       <c r="AI208" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ208" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK208" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
